--- a/作业1/train2-result.xlsx
+++ b/作业1/train2-result.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,2774 +408,2780 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>-1.19294941253962</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
         <v>-3.045747644983444</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>-3.71014236660617</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>-2.473770244797126</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="n">
         <v>-2.182967941441051</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1.180663630742096</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>-1.096552943616934</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>-1.616808884554212</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>-1.096552943616934</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>-0.3948517890733868</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.4795094486588561</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B4">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-0.2854350282458216</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>-1.468644739219125</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>-1.362493201345456</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>-0.6714801941651688</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>-2.177820998115592</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>-1.051352354038778</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>-1.273829320431327</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>-1.108177518136701</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>-4.809489179877019</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>-3.71014236660617</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>-3.786771374727908</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>-2.572598779016647</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.210390573281619</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.06328168475336711</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-1.667047208618734</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.4804822975471348</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B9">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.1522320150644392</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.349632502800324</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.06328168475336711</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>-0.4296291723508683</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>-0.3452304685104355</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1.427793012247839</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.4138992119231854</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.4145709757295901</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B12">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C12" t="n">
         <v>-1.078497471448302</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>-1.489019397349039</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B13">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C13" t="n">
         <v>-1.485514748731435</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>-1.817269679831734</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>-2.572598779016647</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>-0.7554251117433162</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-4.266799476832842</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>-1.156273419121875</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-3.567937853072778</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>-2.053090995582519</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.609086215751156</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.8209164892063183</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1.136982862512526</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.1315072511280907</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>-0.4679715555236024</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>-1.273829320431327</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>-0.7554251117433162</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>-0.3452304685104355</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>-0.6036439812846467</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>-1.616808884554212</v>
       </c>
-      <c r="B19">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>-0.3948517890733868</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>-1.273829320431327</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>-0.4142972798696982</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.4795094486588561</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>-0.5147742573162724</v>
       </c>
-      <c r="B21">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C21" t="n">
         <v>-1.689023387373001</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>-1.667047208618734</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>-1.817269679831734</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>-0.4945676452801343</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>-0.853861834927946</v>
       </c>
-      <c r="B22">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C22" t="n">
         <v>-0.06095427824046956</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>-0.8325188323836477</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B23">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C23" t="n">
         <v>-0.6714801941651688</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>-1.667047208618734</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>-0.8325188323836477</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>-0.5595061182094003</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>-2.028204451775612</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>-1.051352354038778</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B25">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>-0.8325188323836477</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>0.1548170840125259</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B26">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C26" t="n">
         <v>-1.01066125856778</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>-1.667047208618734</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>-1.707852919004169</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.5408606493764324</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>-0.9519639033231311</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>0.4804822975471348</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B28">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C28" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>-0.8325188323836477</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>-0.3460717134949746</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.267958383877538</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>0.9181493408573956</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>1.648401961385644</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>-1.096552943616934</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>-0.1760182674182564</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>-1.023405623733783</v>
       </c>
-      <c r="B32">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C32">
+      <c r="B32" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C32" t="n">
         <v>-0.9428250456872574</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>-1.270185875693908</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>-1.19294941253962</v>
       </c>
-      <c r="B33">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B34">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C34" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>-0.1760182674182564</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B35">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C35" t="n">
         <v>-0.264462916882036</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>-1.143952374572795</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.4138992119231854</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B38">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C38">
+      <c r="B38" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C38" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>-0.3948517890733868</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>-0.8841984828557304</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.210390573281619</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>-0.8841984828557304</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>-0.960101810867487</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>-0.3322991297625582</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>-1.051352354038778</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>0.4145709757295901</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B42">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C42">
+      <c r="B42" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C42" t="n">
         <v>0.210390573281619</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>-0.7231020715560824</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>-0.7690899405250275</v>
       </c>
-      <c r="B43">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C43">
+      <c r="B43" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C43" t="n">
         <v>-1.485514748731435</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>-1.489019397349039</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>-0.1049368077045381</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B44">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C44">
+      <c r="B44" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C44" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>-0.03999833477527212</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>-2.177820998115592</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>0.1315072511280907</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>-1.01066125856778</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>-0.9519639033231311</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>-1.160769114866343</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>-0.4945676452801343</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B48">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C48">
+      <c r="B48" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C48" t="n">
         <v>-1.34984232297039</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>-1.817269679831734</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>-1.096552943616934</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.8209164892063183</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>1.601905044161164</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>0.4804822975471348</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>1.193832650880782</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.8887527020868404</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>1.246399623340091</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B51">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C51">
+      <c r="B51" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C51" t="n">
         <v>0.4138992119231854</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>1.601905044161164</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>0.284694029871058</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>-0.853861834927946</v>
       </c>
-      <c r="B52">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>-1.973511482316849</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>0.3329446867129118</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>0.8087325800298305</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>-0.006142890898761855</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.685244063445274</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>0.8087325800298305</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.685244063445274</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>0.9181493408573956</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>0.4145709757295901</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>-1.417678535850912</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>-1.973511482316849</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>-1.270185875693908</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>-0.8841984828557304</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>1.154890746748945</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>-1.447265095748375</v>
       </c>
-      <c r="B59">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C59">
+      <c r="B59" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C59" t="n">
         <v>-0.5358077684041246</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>-1.156273419121875</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>-1.270185875693908</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>-1.079013901643529</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>-0.1756866797045987</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>-0.264462916882036</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>-0.9519639033231311</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>-0.1049368077045381</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>-1.447265095748375</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>-0.9386337293308644</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>0.1315072511280907</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>-0.6843180461221092</v>
       </c>
-      <c r="B63">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C63">
+      <c r="B63" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C63" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>-0.3948517890733868</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>-0.3452304685104355</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.210390573281619</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>-1.362493201345456</v>
       </c>
-      <c r="B65">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C65">
+      <c r="B65" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C65" t="n">
         <v>-0.6036439812846467</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>-1.156273419121875</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>-1.270185875693908</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>-0.8841984828557304</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>-1.616808884554212</v>
       </c>
-      <c r="B66">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C66">
+      <c r="B66" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C66" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>0.1548170840125259</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>0.6743248674466542</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B68">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C68">
+      <c r="B68" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C68" t="n">
         <v>-0.264462916882036</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>0.6743248674466542</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>0.3329446867129118</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>0.950214047624774</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.1425543604010969</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>-0.1049368077045381</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>-0.006142890898761855</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>-0.8918762444927635</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>-2.163876877536656</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>-1.707852919004169</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>0.0249401381539939</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>-1.447265095748375</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>-1.485514748731435</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>-1.489019397349039</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>-0.9491369557849965</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B72">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C72" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>1.51975120835377</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>1.246399623340091</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>1.583463488456379</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>-1.532036990151293</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>-0.3948517890733868</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>-1.96036823889509</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>-0.7231020715560824</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>0.0249401381539939</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.685244063445274</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>1.323709596739314</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>1.092261340728407</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>1.465233144995222</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>1.193832650880782</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>0.3329446867129118</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.07471814752057472</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>0.1522320150644392</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>1.689294997159607</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>-0.03999833477527212</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>-0.3452304685104355</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>-0.6871995453685926</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.4138992119231854</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>-0.06660150659069118</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>-0.4142972798696982</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>-0.4001353426430803</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>-0.2854350282458216</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>-0.006142890898761855</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>0.1522320150644392</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>1.180663630742096</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>1.427793012247839</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>1.465233144995222</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>1.973094326031975</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>-0.4679715555236024</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>1.193832650880782</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>0.609086215751156</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.8209164892063183</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>0.9181493408573956</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>0.8691402862344523</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>-0.8918762444927635</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.2782267861621411</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>0.1522320150644392</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>1.128894177951516</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>1.180663630742096</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.8887527020868404</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>1.355816384167656</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>1.38864806966858</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>1.350207419547933</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>1.427793012247839</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>1.574649905822787</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>1.583463488456379</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>-0.3322991297625582</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>0.0249401381539939</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>0.3329446867129118</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>-0.3460717134949746</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>-1.156273419121875</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>-0.1756866797045987</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>-1.553350961611957</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>-0.8325188323836477</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>-0.9491369557849965</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>0.3329446867129118</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>-1.164778509991658</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>0.8042018133051863</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>0.9181493408573956</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>0.0249401381539939</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>-0.006142890898761855</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.8209164892063183</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>-0.4142972798696982</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>0.8087325800298305</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>-1.70158077895713</v>
       </c>
-      <c r="B97">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C97">
+      <c r="B97" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C97" t="n">
         <v>-0.8749888328067352</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>-1.489019397349039</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>-2.832352670733711</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>0.1315072511280907</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.6174078505647519</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>-0.4296291723508683</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>1.350207419547933</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.210390573281619</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>0.9181493408573956</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>-0.4945676452801343</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>-1.616808884554212</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>-0.06095427824046956</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>-0.1760182674182564</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>-0.8841984828557304</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>1.427793012247839</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>1.355816384167656</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>-0.3460717134949746</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>-0.1287904911209917</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>-0.4945676452801343</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>-0.1756866797045987</v>
       </c>
-      <c r="B103">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C103">
+      <c r="B103" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C103" t="n">
         <v>-0.8071526199262131</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>-0.9419355932112128</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>-0.4945676452801343</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>0.1315072511280907</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>-1.01066125856778</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>-0.6244445911386663</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.4817354248037076</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>-0.9491369557849965</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B106">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C106">
+      <c r="B106" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C106" t="n">
         <v>0.685244063445274</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>1.583463488456379</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>-1.108177518136701</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>0.4804822975471348</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>0.4145709757295901</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" t="n">
         <v>-0.853861834927946</v>
       </c>
-      <c r="B108">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C108">
+      <c r="B108" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C108" t="n">
         <v>0.3460629990426633</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>-0.9519639033231311</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>-2.182967941441051</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" t="n">
         <v>1.180663630742096</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.8887527020868404</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>1.465233144995222</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>1.323709596739314</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B110">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C110">
+      <c r="B110" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C110" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>0.9340787591637183</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.8887527020868404</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>1.136982862512526</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>1.713340434314911</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>1.246399623340091</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" t="n">
         <v>-0.4300023629133539</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>-0.8071526199262131</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>-0.2854350282458216</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" t="n">
         <v>1.180663630742096</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>-1.417678535850912</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>1.518525015527112</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>-0.8749888328067352</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>-0.5595061182094003</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>-0.06095427824046956</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>-0.1347258401281566</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>0.08987861108325992</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" t="n">
         <v>1.350207419547933</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>-0.8918762444927635</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>-0.6036439812846467</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>-0.2854350282458216</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>1.193832650880782</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.8209164892063183</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>1.136982862512526</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>0.6743248674466542</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>-0.739316407045691</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>-1.156273419121875</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>-0.504268549900952</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" t="n">
         <v>-0.1756866797045987</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>-1.553350961611957</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>-1.014075428714263</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" t="n">
         <v>0.6720322643245855</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" t="n">
         <v>-0.9386337293308644</v>
       </c>
-      <c r="B122">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C122">
+      <c r="B122" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C122" t="n">
         <v>0.00688193464005258</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>-0.6136853107285172</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>0.08987861108325992</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" t="n">
         <v>1.350207419547933</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>1.092261340728407</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>1.39759552836242</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>1.465233144995222</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
+    <row r="124">
+      <c r="A124" t="n">
         <v>0.07862900350415657</v>
       </c>
-      <c r="B124">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C124">
+      <c r="B124" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C124" t="n">
         <v>-1.214169897209346</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>-1.160769114866343</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>-0.03999833477527212</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
+    <row r="125">
+      <c r="A125" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>-0.6454996296250156</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>0.5898990583747</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>-0.7543215369971984</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
+    <row r="126">
+      <c r="A126" t="n">
         <v>0.5024884755187486</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>0.8819884812500505</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>1.136982862512526</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>0.5444479215881221</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
+    <row r="127">
+      <c r="A127" t="n">
         <v>-0.853861834927946</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>-0.1413950143708037</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.9565889149673625</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>0.2616487758920044</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
+    <row r="128">
+      <c r="A128" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>1.223116313123668</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>1.355816384167656</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>1.453586542597846</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
+    <row r="129">
+      <c r="A129" t="n">
         <v>-1.362493201345456</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>-0.07316944799608012</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>-1.756859600253523</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>-1.46273769281999</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>-1.707852919004169</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>-0.9491369557849965</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
+    <row r="130">
+      <c r="A130" t="n">
         <v>0.07862900350415657</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>1.496018578622563</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>-0.1966267040015139</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>0.3710655367195697</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
+    <row r="131">
+      <c r="A131" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>1.086665180374221</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>0.580357465167446</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>1.027566101684961</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>-0.3646906994216023</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
+    <row r="132">
+      <c r="A132" t="n">
         <v>-0.6843180461221092</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>-0.8236506781180398</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>0.7530802763257961</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>-0.441190113826272</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>0.04281525423687402</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>-0.2348137535630702</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
+    <row r="133">
+      <c r="A133" t="n">
         <v>1.689294997159607</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>1.427793012247839</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>0.8887527020868404</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>0.06958367567058699</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>1.465233144995222</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>1.06395570502225</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
+    <row r="134">
+      <c r="A134" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>-0.4142972798696982</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>0.00688193464005258</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>-0.06660150659069118</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>0.4795094486588561</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
+    <row r="135">
+      <c r="A135" t="n">
         <v>1.011119841936259</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>0.8137629148753268</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>-0.06095427824046956</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>0.4804822975471348</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>-0.03999833477527212</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
+    <row r="136">
+      <c r="A136" t="n">
         <v>0.163400897907075</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>0.609086215751156</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>0.5495716376842297</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>0.8868217388655614</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>0.6993158192022653</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>1.323709596739314</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
+    <row r="137">
+      <c r="A137" t="n">
         <v>0.8415760531304223</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>0.609086215751156</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>1.024425127847885</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>1.091131254664305</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>1.246399623340091</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>1.323709596739314</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
+    <row r="138">
+      <c r="A138" t="n">
         <v>-1.447265095748375</v>
       </c>
-      <c r="B138">
-        <v>-1.233004076366381</v>
-      </c>
-      <c r="C138">
+      <c r="B138" t="n">
+        <v>-1.233004076366381</v>
+      </c>
+      <c r="C138" t="n">
         <v>-0.5358077684041246</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>0.3760479493687024</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>-1.051352354038778</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>0.1548170840125259</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>